--- a/xlsx/欧洲盟军最高司令_intext.xlsx
+++ b/xlsx/欧洲盟军最高司令_intext.xlsx
@@ -29,7 +29,7 @@
     <t>北大西洋公约组织</t>
   </si>
   <si>
-    <t>政策_政策_美國_欧洲盟军最高司令</t>
+    <t>政策_政策_美国_欧洲盟军最高司令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%81%AF%E9%82%A6%E5%9C%8B%E9%98%B2%E8%BB%8D%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>德國聯邦國防軍陸軍</t>
+    <t>德国联邦国防军陆军</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Werner_Freers</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9F%E8%BB%8D%E9%81%A0%E5%BE%81%E9%83%A8%E9%9A%8A%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>盟軍遠征部隊最高司令部</t>
+    <t>盟军远征部队最高司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%B4%8D%E5%BE%B7%C2%B7%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9</t>
   </si>
   <si>
-    <t>伯納德·蒙哥馬利</t>
+    <t>伯纳德·蒙哥马利</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Casteau</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E9%8E%AE</t>
   </si>
   <si>
-    <t>凡爾賽鎮</t>
+    <t>凡尔赛镇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Allied_Command_Transformation</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BF%AE%C2%B7%E6%9D%8E%E5%A5%87%E5%A8%81</t>
   </si>
   <si>
-    <t>馬修·李奇威</t>
+    <t>马修·李奇威</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alfred_Gruenther</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%9B%BC%C2%B7%E9%9B%B7%E5%A7%86%E5%B0%BC%E6%BE%A4</t>
   </si>
   <si>
-    <t>李曼·雷姆尼澤</t>
+    <t>李曼·雷姆尼泽</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Andrew_Goodpaster</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%B5%B7%E6%A0%BC</t>
   </si>
   <si>
-    <t>亞歷山大·海格</t>
+    <t>亚历山大·海格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bernard_W._Rogers</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%96%AF%E5%88%A9%C2%B7%E5%85%8B%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>韋斯利·克拉克</t>
+    <t>韦斯利·克拉克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joseph_Ralston</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E4%B8%8A%E5%B0%87</t>
   </si>
   <si>
-    <t>海軍上將</t>
+    <t>海军上将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E5%B8%83%E9%87%8C%E5%BE%B7%E6%B4%9B%E5%A4%AB</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>Template talk-北大西洋公約組織</t>
+    <t>Template talk-北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E6%93%B4%E5%BC%B5</t>
   </si>
   <si>
-    <t>北約擴張</t>
+    <t>北约扩张</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/North_Atlantic_Council</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>北約秘書長</t>
+    <t>北约秘书长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chairman_of_the_NATO_Military_Committee</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>保加利亞軍事</t>
+    <t>保加利亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>加拿大軍隊</t>
+    <t>加拿大军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>克羅埃西亞軍事</t>
+    <t>克罗埃西亚军事</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Army_of_the_Czech_Republic</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>丹麥國防軍</t>
+    <t>丹麦国防军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Estonia_Defence_Forces</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>希臘軍隊</t>
+    <t>希腊军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>匈牙利國防軍</t>
+    <t>匈牙利国防军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_of_Iceland</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>盧森堡軍事</t>
+    <t>卢森堡军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E5%86%9B%E9%98%9F</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>波蘭軍事</t>
+    <t>波兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E6%AD%A6%E8%A3%85%E9%83%A8%E9%98%9F</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E9%9D%9E%E5%8C%97%E7%B4%84%E7%9B%9F%E5%8F%8B</t>
   </si>
   <si>
-    <t>主要非北約盟友</t>
+    <t>主要非北约盟友</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mediterranean_Dialogue</t>
